--- a/files/waterfield/20WT0001-PL-0001_3.2.xlsx
+++ b/files/waterfield/20WT0001-PL-0001_3.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Prada\Documents\projects\in progress\waterfield - wyndham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22FF1E9-1099-43DF-BAF8-86A91AEA46F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C45FF-60E2-4EB4-AA59-5D4E5761A3A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{825D86EF-9D75-4A03-891A-9874347C99D0}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="master prompt list" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'master prompt list'!$A$1:$I$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'master prompt list'!$A$1:$I$250</definedName>
     <definedName name="_Toc30747989" localSheetId="1">'master prompt list'!$A$10</definedName>
     <definedName name="_Toc30747995" localSheetId="1">'master prompt list'!$A$54</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="827">
   <si>
     <t>1.0</t>
   </si>
@@ -336,9 +336,6 @@
     <t>&lt;yes&gt; sí, correcto, así es.</t>
   </si>
   <si>
-    <t>¿Qué desea hacer? Puede decir… reservas, pagos y resúmenes , cambios de titularidad, o más opciones.</t>
-  </si>
-  <si>
     <t>&lt;payments&gt;
 Pago(s)
 Resumen(es)</t>
@@ -384,12 +381,6 @@
 Beneficios,
 Club Wyndham,
 Beneficios del club Wyndham</t>
-  </si>
-  <si>
-    <t>&lt;address&gt;
-Direccion postal,
-Direccion de pago,
-Direccion postal de pago.</t>
   </si>
   <si>
     <t>&lt;downpayment&gt;
@@ -417,11 +408,6 @@
 Resumen(es)</t>
   </si>
   <si>
-    <t>&lt;cancel&gt;
-Carta de cancelacion,
-Nota de cancelacion</t>
-  </si>
-  <si>
     <t>&lt;tax&gt;
 Impuesto(s),
 Documento(s) impositivo(s),
@@ -442,45 +428,19 @@
     <t>Por favor diga o ingrese el numero de cuenta.</t>
   </si>
   <si>
-    <t>Para comenzar, ¿cual es el numero de su cuenta?</t>
-  </si>
-  <si>
     <t>¿Y la fecha de nacimiento del titular?</t>
   </si>
   <si>
     <t>Por favor digame la fecha de nacimiento del titular, incluyendo mes, dia y año, o ingreselo utilizando 2 digitos para el mes, 2 para el dia y 4 para el año.</t>
   </si>
   <si>
-    <t>Para el programa Wyndham rewards, presione 1. Conversion de puntos, 2. Preguntas sobre su opcion de intervalo personal, 3. Para hablar con un agente presione 0.</t>
-  </si>
-  <si>
-    <t>Puede decir ... Programa Wyndham rewards, conversion de puntos, opcion de intervalo personal, o hablar con un agente.</t>
-  </si>
-  <si>
-    <t>No pude encontrar ninguna cuenta con la informacion que me proveyo. Probemos nuevamente, ¿cual es el numero de su cuenta?</t>
-  </si>
-  <si>
     <t>¿Hay algo mas con lo que lo pueda ayudar hoy? Puede decir menu principal o simplemente colgar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;account&gt;
-Opcional:
-•	Es
-•	Mi numero es
-</t>
   </si>
   <si>
     <t>&lt;dob&gt;
 Opcional:
 •	Es
 •	Mi/la (fecha/cumpleaños/fecha de nacimiento) es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;account&gt;
-Opcional:
-Es
-Mi numero es
-</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;ownership&gt;
@@ -506,28 +466,10 @@
 Pagar</t>
   </si>
   <si>
-    <t>Para hacer un pago, presione 1.Verificar el estado de su cuenta, 2. Solicitar un documento, 3. Mas opciones, 4. Para hablar con un agente, presion 0.</t>
-  </si>
-  <si>
-    <t>¿Desea que le envie la copia mas reciente de su impuesto 1098 a la direccion que tenemos registrada?</t>
-  </si>
-  <si>
     <t>He procesado su solicitud ¿Hay algo mas con lo que lo pueda ayudar hoy? Puede decir menu principal o simplemente colgar.</t>
   </si>
   <si>
-    <t>Puedo enviarle una copia de su ultimo resumen anual, o una copia de su resumen mensual mas reciente. ¿Cual desea, anual, o mensual?</t>
-  </si>
-  <si>
-    <t>Elija el documento, puede decir cotización de pago total, resumenes, carta de cancelacion o documentos impositivos.</t>
-  </si>
-  <si>
-    <t>Para cotizacion de pago total, presione 1. Resumenes, 2. Carta de cancelacion, 3. Documentos impositivos, 4. Para hablar con un agente presione 0.</t>
-  </si>
-  <si>
     <t>Para recibir una copia de su resumen mensual mas reciente, presione 1. Para su ultimo resumen anual, 2. Para hablar con un agente presione 0.</t>
-  </si>
-  <si>
-    <t>Puede decir Beneficios del Club Wyndham, direccion postal, informacion de transferencia electronica, preguntas de pago inicial, o  hablar con un agente. ¿Cual desea?</t>
   </si>
   <si>
     <t>¿Desea realizar un pago ahora? Presione 1 para si, o 2 para no. Para hablar con un agente, presione 0.</t>
@@ -1334,9 +1276,6 @@
     <t>Estoy teniendo dificultades.</t>
   </si>
   <si>
-    <t>operadora, agente, representatnte, atención al cliente</t>
-  </si>
-  <si>
     <t>sí, correcto</t>
   </si>
   <si>
@@ -1382,9 +1321,6 @@
     <t>documentos</t>
   </si>
   <si>
-    <t>preguntas sobre depósito iniical</t>
-  </si>
-  <si>
     <t>información</t>
   </si>
   <si>
@@ -1475,9 +1411,6 @@
     <t>cambiar titularidad a su compañía o fideicomiso</t>
   </si>
   <si>
-    <t>conversion de puntos</t>
-  </si>
-  <si>
     <t>quitar un titular</t>
   </si>
   <si>
@@ -1508,9 +1441,6 @@
     <t>resumen</t>
   </si>
   <si>
-    <t>resumenes</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
@@ -1529,9 +1459,6 @@
     <t>transferir</t>
   </si>
   <si>
-    <t>trasferir titularidad</t>
-  </si>
-  <si>
     <t>transferir titularidad a otra persona</t>
   </si>
   <si>
@@ -1559,9 +1486,6 @@
     <t>Reservas</t>
   </si>
   <si>
-    <t>Para reservas, presione 1, pagos y resúmenes 2, cambios de titularidad 3, o más opciones 4. Para hablar con un representante, presione 0.</t>
-  </si>
-  <si>
     <t>Hablar con un representante</t>
   </si>
   <si>
@@ -1586,12 +1510,6 @@
     <t>Puedo ayudarle a agregar un titular, quitar un titular, cambiar su nombre, cambiar la titularidad a alguien más, o cambiar la titularidad a su compañía o fideicomiso. ¿Cuál desea?</t>
   </si>
   <si>
-    <t>Para oir estas opciones nuevamente, diga repetir eso. Si desea hablar con alguien, simplemente diga representante.</t>
-  </si>
-  <si>
-    <t>Wyndham requiere un cargo de procesamiento de 100 dólares por cuenta para actualizar la titularidad, además del nuevo título de propiedad del condado donde está registrado el inmueble. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del titulo de propiedad registrado, por favor envíe tambien los datos del nuevo titular (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Shell Member  Transfers.</t>
-  </si>
-  <si>
     <t>Wyndham requiere el nuevo título de propiedad del condado dónde está su propiedad, donde se vea el cambio de nombre. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además deberá enviar una copia del documento legal, por ejemplo certificado de matrimonio o divorcio, junto con una copia de su nuevo documento de identidad donde figure su nombre cambiado. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Shell Member  Transfers o por correo electrónico a shellmembertransfers@wyn.com.</t>
   </si>
   <si>
@@ -1649,12 +1567,6 @@
     <t xml:space="preserve">y un saldo de análisis de </t>
   </si>
   <si>
-    <t>Wyndham requiere un cargo de procesamiento de 100 dólares por cuenta para actualizar la titularidad, además del nuevo título de propiedad del condado donde posee el inmueble. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo titulo de propiedad registrado, por favor envíe tambien los datos del apoderado de la compañía o fideicomiso (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , una copia de documento de identidad emitido por el gobierno , una copia de los documentos corporativos y certificado de cumplimiento. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Shell Member  Transfers.</t>
-  </si>
-  <si>
-    <t>Puede decir: realizar un pago, verificar estado de cuenta, solicitar un documento o más opciones. ¿Cuál desea?</t>
-  </si>
-  <si>
     <t>Si desea hablar con un representante, simplemente diga representante.</t>
   </si>
   <si>
@@ -1664,29 +1576,13 @@
     <t>Wyndham requiere un cargo de procesamiento de 75 dólares por cuenta para actualizar la titularidad. Puede usar la opción de autoservicio ingresando a su cuenta online. También puede enviar una solicitud por escrito con información de cada nuevo titular (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Shell Member  Transfers. Una vez recibida la información y el pago, Wyndham enviará los documentos de transferencia de titularidad para ser firmados ante escribano público y devueltos.</t>
   </si>
   <si>
-    <t>Wyndham requiere un cargo de procesamiento de 299 dólares por cuenta para actualizar la titularidad, además del nuevo título de propiedad del condado donde está la propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo titulo de propiedad registrado, por favor envíe tambien los datos del nuevo titular (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change.</t>
-  </si>
-  <si>
-    <t>Wyndham requiere un cargo de procesamiento de 299 dólares por cuenta y el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo titulo de propiedad registrado, por favor envíe tambien los datos del apoderado de la compañía o fideicomiso (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , una copia de documento de identidad emitido por el gobierno , una copia de los documentos corporativos y certificado de cumplimiento. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change. O por correo electrónico a worldmarkownershipchange@wyn.com.</t>
-  </si>
-  <si>
     <t>Wyndham requiere un cargo de procesamiento de 299 dólares para actualizar la titularidad, además del nuevo título de propiedad del condado donde está la propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change.</t>
-  </si>
-  <si>
-    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo titulo de propiedad registrado, por favor envíe tambien los datos del nuevo dueño (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , y una copia de documento de identidad emitido por el gobierno.
-Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change.</t>
   </si>
   <si>
     <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. 
 Por favor envie una copia del nuevo título a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change. O por correo electrónico a ownershipchange@wyn.com.</t>
   </si>
   <si>
-    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo titulo de propiedad registrado, por favor envíe tambien los datos del apoderado de la compañía o fideicomiso (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , una copia de documento de identidad emitido por el gobierno , una copia de los documentos corporativos y certificado de cumplimiento. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change. O por correo electrónico a worldmarkownershipchange@wyn.com.</t>
-  </si>
-  <si>
-    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo titulo de propiedad registrado, por favor envíe tambien los datos del nuevo dueño (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change.</t>
-  </si>
-  <si>
     <t>Wyndham requiere un cargo de procesamiento de 299 dólares para actualizar la titularidad.  Además deberá enviar una solicitud por escrito con los datos de cada uno de los nuevos titulares (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) junto con una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change. Una vez recibida la documentación y el pago, Wyndham enviará los documentos de transferencia o inclusión de titularidad para ser firmados ante escribano público y devueltos.</t>
   </si>
   <si>
@@ -1703,10 +1599,6 @@
   </si>
   <si>
     <t>Wyndham requiere un cargo de procesamiento de 299 dólares por cuenta para actualizar la titularidad. También deberá enviar una solicitud por escrito con información de cada nuevo titular (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change. Una vez recibida la información y el pago, Wyndham enviará los documentos de transferencia o inclusión de titularidad para ser firmados ante escribano público y devueltos.</t>
-  </si>
-  <si>
-    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo titulo de propiedad registrado, por favor envíe tambien los datos del nuevo dueño (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , y una copia de documento de identidad emitido por el gobierno.
-Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change.</t>
   </si>
   <si>
     <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. 
@@ -1728,16 +1620,6 @@
     <t>Wyndham requiere un cargo de procesamiento de 299 dólares por cuenta para actualizar la titularidad
 El máximo es de dos titulares por cuenta. Además del pago, deberá enviar  una solicitud por escrito con la información del nuevo titular   (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change.
 Una vez recibida la información y el pago, Wyndham enviará los documentos de transferencia o inclusión de titularidad para ser firmados ante escribano público y devueltos.</t>
-  </si>
-  <si>
-    <t>Wyndham requiere un cargo de procesamiento de 299 dólares por cuenta y el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo titulo de propiedad registrado, por favor envíe tambien los datos del nuevo titular (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change.</t>
-  </si>
-  <si>
-    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo titulo de propiedad registrado, por favor envíe tambien los datos del apoderado de la compañía o fideicomiso (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , una copia de documento de identidad emitido por el gobierno , una copia de los documentos corporativos y certificado de cumplimiento.
-Por favor envie una copia del nuevo título a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change. O por correo electrónico a worldmarkownershipchange@wyn.com.</t>
-  </si>
-  <si>
-    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo titulo de propiedad registrado, por favor envíe tambien los datos del nuevo dueño (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change.</t>
   </si>
   <si>
     <t>2.1</t>
@@ -2506,9 +2388,6 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>Más opciones</t>
-  </si>
-  <si>
     <t>Fazer um pagamento</t>
   </si>
   <si>
@@ -2545,16 +2424,10 @@
     <t>Benefícios do Club Wyndham</t>
   </si>
   <si>
-    <t>Direccion postal de pago</t>
-  </si>
-  <si>
     <t>Endereço postal do pagamento</t>
   </si>
   <si>
     <t>Transferencia electronica</t>
-  </si>
-  <si>
-    <t>Para Beneficios del Club Wyndham, presione 1, direccion postal de pago, 2, informacion de transferencia electronica, 3, preguntas de pago inicial, 4, o  hablar con un agente, presione 0.</t>
   </si>
   <si>
     <t>Transferência eletrônica</t>
@@ -2737,6 +2610,233 @@
   </si>
   <si>
     <t>Lo invitamos a inscribirse en nuestro programa de pago automático Auto Pay, esta es una excelente manera de evitar descuidos de pagos y ciertas tarifas de procesamiento. Después de escuchar su saldo, diga "sí" a la opción de pago para continuar con la inscripción de pago automático.</t>
+  </si>
+  <si>
+    <t>&lt;wire transfer&gt;
+Wire transfer information, 
+Wire transfer</t>
+  </si>
+  <si>
+    <t>&lt;wire transfer&gt;
+Información de transferencia electrónica, 
+transferencia electrónica</t>
+  </si>
+  <si>
+    <t>&lt;wire transfer&gt;
+transferência eletrônica
+Informações de transferência eletrônica</t>
+  </si>
+  <si>
+    <t>&lt;add&gt;
+Add an owner,
+Add</t>
+  </si>
+  <si>
+    <t>&lt;remove&gt;
+Remove an owner,
+Remove</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;
+Change,
+Change name,
+Change (my) name</t>
+  </si>
+  <si>
+    <t>&lt;transfer&gt;
+Transfer,
+Transfer ownership</t>
+  </si>
+  <si>
+    <t>&lt;trust&gt;
+Place ownership,
+Trust,
+Company</t>
+  </si>
+  <si>
+    <t>&lt;add&gt;
+agregar un titular,
+agregar</t>
+  </si>
+  <si>
+    <t>&lt;add&gt;
+adicionar um proprietário,
+adicionar</t>
+  </si>
+  <si>
+    <t>&lt;remove&gt;
+quitar un titular,
+quitar</t>
+  </si>
+  <si>
+    <t>&lt;remove&gt;
+excluir um proprietário,
+excluir</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;
+Cambiar,
+Cambiar nombre,
+Cambiar (mi) nombre</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;
+Alterar,
+Alterar nome,
+Alterar (meu) nome</t>
+  </si>
+  <si>
+    <t>&lt;transfer&gt;
+Transferir,
+Transferir titularidad</t>
+  </si>
+  <si>
+    <t>transferir titularidad</t>
+  </si>
+  <si>
+    <t>&lt;transfer&gt;
+Transferir,
+Transferir a propriedade</t>
+  </si>
+  <si>
+    <t>&lt;trust&gt;
+Cambiar titularidad,
+Fideicomiso,
+Compañía</t>
+  </si>
+  <si>
+    <t>&lt;transfer&gt;
+Colocar,
+Colocar a propriedade,
+Fundo fiduciário,
+Empresa</t>
+  </si>
+  <si>
+    <t>conversión de puntos</t>
+  </si>
+  <si>
+    <t>Para comenzar, ¿cuál es el numero de su cuenta?</t>
+  </si>
+  <si>
+    <t>Puedo enviarle una copia de su ultimo resumen anual, o una copia de su resumen mensual mas reciente. ¿cuál desea, anual, o mensual?</t>
+  </si>
+  <si>
+    <t>Wyndham requiere un cargo de procesamiento de 100 dólares por cuenta para actualizar la titularidad, además del nuevo título de propiedad del condado donde está registrado el inmueble. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del título de propiedad registrado, por favor envíe tambien los datos del nuevo titular (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Shell Member  Transfers.</t>
+  </si>
+  <si>
+    <t>Wyndham requiere un cargo de procesamiento de 100 dólares por cuenta para actualizar la titularidad, además del nuevo título de propiedad del condado donde posee el inmueble. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo título de propiedad registrado, por favor envíe tambien los datos del apoderado de la compañía o fideicomiso (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , una copia de documento de identidad emitido por el gobierno , una copia de los documentos corporativos y certificado de cumplimiento. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Shell Member  Transfers.</t>
+  </si>
+  <si>
+    <t>Wyndham requiere un cargo de procesamiento de 299 dólares por cuenta para actualizar la titularidad, además del nuevo título de propiedad del condado donde está la propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo título de propiedad registrado, por favor envíe tambien los datos del nuevo titular (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change.</t>
+  </si>
+  <si>
+    <t>Wyndham requiere un cargo de procesamiento de 299 dólares por cuenta y el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo título de propiedad registrado, por favor envíe tambien los datos del apoderado de la compañía o fideicomiso (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , una copia de documento de identidad emitido por el gobierno , una copia de los documentos corporativos y certificado de cumplimiento. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change. O por correo electrónico a worldmarkownershipchange@wyn.com.</t>
+  </si>
+  <si>
+    <t>Wyndham requiere un cargo de procesamiento de 299 dólares por cuenta y el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo título de propiedad registrado, por favor envíe tambien los datos del nuevo titular (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change.</t>
+  </si>
+  <si>
+    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo título de propiedad registrado, por favor envíe tambien los datos del nuevo dueño (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , y una copia de documento de identidad emitido por el gobierno.
+Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change.</t>
+  </si>
+  <si>
+    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo título de propiedad registrado, por favor envíe tambien los datos del apoderado de la compañía o fideicomiso (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , una copia de documento de identidad emitido por el gobierno , una copia de los documentos corporativos y certificado de cumplimiento. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change. O por correo electrónico a worldmarkownershipchange@wyn.com.</t>
+  </si>
+  <si>
+    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo título de propiedad registrado, por favor envíe tambien los datos del nuevo dueño (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Ownership Change.</t>
+  </si>
+  <si>
+    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo título de propiedad registrado, por favor envíe tambien los datos del nuevo dueño (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , y una copia de documento de identidad emitido por el gobierno.
+Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change.</t>
+  </si>
+  <si>
+    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo título de propiedad registrado, por favor envíe tambien los datos del apoderado de la compañía o fideicomiso (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , una copia de documento de identidad emitido por el gobierno , una copia de los documentos corporativos y certificado de cumplimiento.
+Por favor envie una copia del nuevo título a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change. O por correo electrónico a worldmarkownershipchange@wyn.com.</t>
+  </si>
+  <si>
+    <t>Wyndham requiere el nuevo título de propiedad del condado donde está su propiedad. Le recomendamos utilizar un profesional matriculado para realizar el documento. Además del nuevo título de propiedad registrado, por favor envíe tambien los datos del nuevo dueño (nombre, apellido, dirección, teléfono, dirección de correo electrónico, fecha de nacimiento) , y una copia de documento de identidad emitido por el gobierno. Por favor enviar toda esta documentación a 6277 Sea Harbor Drive, Orlando Florida 32821, dirigido a Worldmark Ownership Change.</t>
+  </si>
+  <si>
+    <t>dirección postal de pago</t>
+  </si>
+  <si>
+    <t>¿Desea que le envie la copia mas reciente de su impuesto 1098 a la dirección que tenemos registrada?</t>
+  </si>
+  <si>
+    <t>No pude encontrar ninguna cuenta con la información que me proveyo. Probemos nuevamente, ¿cuál es el numero de su cuenta?</t>
+  </si>
+  <si>
+    <t>Puede decir Beneficios del Club Wyndham, dirección postal, información de transferencia electronica, preguntas de pago inicial, o  hablar con un agente. ¿cuál desea?</t>
+  </si>
+  <si>
+    <t>Para Beneficios del Club Wyndham, presione 1, dirección postal de pago, 2, información de transferencia electronica, 3, preguntas de pago inicial, 4, o  hablar con un agente, presione 0.</t>
+  </si>
+  <si>
+    <t>Elija el documento, puede decir cotización de pago total, resúmenes, carta de cancelación o documentos impositivos.</t>
+  </si>
+  <si>
+    <t>Para cotizacion de pago total, presione 1. resúmenes, 2. Carta de cancelación, 3. Documentos impositivos, 4. Para hablar con un agente presione 0.</t>
+  </si>
+  <si>
+    <t>más opciónes</t>
+  </si>
+  <si>
+    <t>¿Qué desea hacer? Puede decir… reservas, pagos y resúmenes , cambios de titularidad, o más opciónes.</t>
+  </si>
+  <si>
+    <t>Para reservas, presione 1, pagos y resúmenes 2, cambios de titularidad 3, o más opciónes 4. Para hablar con un representante, presione 0.</t>
+  </si>
+  <si>
+    <t>Puede decir ... Programa Wyndham rewards, conversión de puntos, opción de intervalo personal, o hablar con un agente.</t>
+  </si>
+  <si>
+    <t>Para el programa Wyndham rewards, presione 1. conversión de puntos, 2. Preguntas sobre su opción de intervalo personal, 3. Para hablar con un agente presione 0.</t>
+  </si>
+  <si>
+    <t>Para oir estas opciónes nuevamente, diga repetir eso. Si desea hablar con alguien, simplemente diga representante.</t>
+  </si>
+  <si>
+    <t>Puede decir: realizar un pago, verificar estado de cuenta, solicitar un documento o más opciónes. ¿Cuál desea?</t>
+  </si>
+  <si>
+    <t>Para hacer un pago, presione 1.Verificar el estado de su cuenta, 2. Solicitar un documento, 3. Mas opciónes, 4. Para hablar con un agente, presione0.</t>
+  </si>
+  <si>
+    <t>Más opciónes</t>
+  </si>
+  <si>
+    <t>operadora, agente, representante, atención al cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;account&gt;
+Opcional:
+•	Es
+•	Mi número es
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;account&gt;
+Opcional:
+Es
+Mi número es
+</t>
+  </si>
+  <si>
+    <t>resúmenes</t>
+  </si>
+  <si>
+    <t>&lt;address&gt;
+dirección postal,
+dirección de pago,
+dirección postal de pago.</t>
+  </si>
+  <si>
+    <t>&lt;cancel&gt;
+Carta de cancelación,
+Nota de cancelación</t>
+  </si>
+  <si>
+    <t>preguntas sobre depósito inicial</t>
   </si>
 </sst>
 </file>
@@ -3356,7 +3456,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3420,201 +3520,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3631,6 +3536,207 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4202,192 +4308,192 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>715</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+        <v>681</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="17">
         <v>43941</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="89"/>
+      <c r="I1" s="98"/>
       <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>711</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
+        <v>676</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>677</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="17">
         <v>43931</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="89"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>708</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
+        <v>675</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>674</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="17">
         <v>43930</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="89"/>
+      <c r="I3" s="98"/>
       <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>696</v>
-      </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
+        <v>661</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>662</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="17">
         <v>43928</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="H4" s="89" t="s">
-        <v>617</v>
-      </c>
-      <c r="I4" s="89"/>
+        <v>582</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>583</v>
+      </c>
+      <c r="I4" s="98"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+        <v>606</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>604</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="17">
         <v>43924</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="89"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>638</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+        <v>584</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>604</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="17">
         <v>43923</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="89"/>
+      <c r="I6" s="98"/>
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>615</v>
-      </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+        <v>580</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>581</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="17">
         <v>43919</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>616</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>617</v>
-      </c>
-      <c r="I7" s="89"/>
+        <v>582</v>
+      </c>
+      <c r="H7" s="98" t="s">
+        <v>583</v>
+      </c>
+      <c r="I7" s="98"/>
       <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B8" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+        <v>488</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="17">
         <v>43915</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="89"/>
+      <c r="I8" s="98"/>
       <c r="J8" s="4" t="s">
         <v>3</v>
       </c>
@@ -4396,22 +4502,22 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="17">
         <v>43859</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="89"/>
+      <c r="I9" s="98"/>
       <c r="J9" s="4" t="s">
         <v>3</v>
       </c>
@@ -4420,213 +4526,213 @@
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" thickBot="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="46" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="55" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="58" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
     </row>
     <row r="22" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A22" s="67" t="s">
-        <v>716</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="73" t="s">
+      <c r="A22" s="76" t="s">
+        <v>682</v>
+      </c>
+      <c r="B22" s="77"/>
+      <c r="C22" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="77" t="s">
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="78"/>
+      <c r="J22" s="87"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="79" t="s">
+      <c r="A23" s="78"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="85" t="s">
-        <v>715</v>
-      </c>
-      <c r="J23" s="63"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="94" t="s">
+        <v>681</v>
+      </c>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="86" t="s">
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="87"/>
+      <c r="J24" s="96"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8"/>
@@ -4689,10 +4795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42E340-E898-47B5-9A08-E5DC0C8A4825}">
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A95" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4700,22 +4806,22 @@
     <col min="1" max="1" width="23.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="56.85546875" style="9" customWidth="1"/>
     <col min="3" max="3" width="43" style="9" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" style="91" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" style="26" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D1" s="91" t="s">
-        <v>309</v>
+        <v>281</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>294</v>
       </c>
       <c r="F1" s="16"/>
     </row>
@@ -4728,7 +4834,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -4742,1795 +4848,1795 @@
         <v>75</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="22" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>718</v>
+        <v>684</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>719</v>
+        <v>685</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>720</v>
+        <v>686</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="22" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="22" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="22" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="22" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="22" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="22" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>417</v>
+        <v>811</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="22" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>80</v>
+        <v>812</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="22" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>465</v>
+        <v>813</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="22" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="22" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>437</v>
+        <v>790</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="22" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="22" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="22" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>106</v>
+        <v>814</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="22" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>105</v>
+        <v>815</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="22" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>102</v>
+        <v>791</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="22" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="22" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="22" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="22" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>107</v>
+        <v>806</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="22" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="22" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="22" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>644</v>
+        <v>610</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="22" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>648</v>
+        <v>614</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="22" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="22" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="22" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>637</v>
+        <v>603</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="22" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>620</v>
+        <v>586</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="22" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>474</v>
+        <v>816</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>650</v>
+        <v>616</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>700</v>
+        <v>666</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>701</v>
+        <v>667</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>702</v>
+        <v>668</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="22" t="s">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>737</v>
+        <v>703</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22" t="s">
-        <v>723</v>
+        <v>689</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>724</v>
+        <v>690</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="22" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>726</v>
+        <v>692</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>739</v>
+        <v>705</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="22" t="s">
-        <v>727</v>
+        <v>693</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>732</v>
+        <v>698</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>738</v>
+        <v>704</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="22" t="s">
-        <v>730</v>
+        <v>696</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>729</v>
+        <v>695</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>731</v>
+        <v>697</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="22" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>475</v>
+        <v>793</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>670</v>
+        <v>636</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="22" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="22" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="22" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>495</v>
+        <v>794</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>653</v>
+        <v>619</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="22" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>475</v>
+        <v>793</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="22" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>651</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="22" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="D45" s="92" t="s">
-        <v>656</v>
+        <v>474</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="22" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>657</v>
+        <v>623</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>697</v>
+        <v>663</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>654</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="22" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>639</v>
+        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>658</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="22" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>500</v>
+        <v>795</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="22" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="22" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="22" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>501</v>
+        <v>796</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>659</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="22" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>519</v>
+        <v>797</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="22" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>503</v>
+        <v>187</v>
+      </c>
+      <c r="C54" s="100" t="s">
+        <v>798</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="22" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>660</v>
+        <v>626</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="22" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>660</v>
+        <v>626</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="22" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>505</v>
+        <v>799</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>661</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="22" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>506</v>
+        <v>800</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="22" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="22" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>664</v>
+        <v>630</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="22" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>664</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="22" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="22" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>662</v>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="22" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>513</v>
+        <v>206</v>
+      </c>
+      <c r="C64" s="100" t="s">
+        <v>801</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="22" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>698</v>
+        <v>664</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>665</v>
+        <v>631</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="22" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>667</v>
+        <v>633</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="22" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>520</v>
+        <v>192</v>
+      </c>
+      <c r="C67" s="100" t="s">
+        <v>802</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="22" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>521</v>
+        <v>803</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="22" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="22" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>669</v>
+        <v>635</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="22" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="22" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="22" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="22" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="22" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="46.5" customHeight="1">
       <c r="A76" s="22" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>496</v>
+        <v>817</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="22" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>115</v>
+        <v>818</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="22" t="s">
-        <v>741</v>
+        <v>707</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>742</v>
+        <v>708</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>748</v>
+        <v>714</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>752</v>
+        <v>717</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="22" t="s">
-        <v>743</v>
+        <v>709</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>744</v>
+        <v>710</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="22" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="22" t="s">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>751</v>
+        <v>819</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="22" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B82" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>122</v>
+        <v>807</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="22" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B83" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="96" t="s">
-        <v>767</v>
-      </c>
-      <c r="D83" s="96" t="s">
-        <v>680</v>
+      <c r="C83" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="22" t="s">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="C84" s="96" t="s">
-        <v>762</v>
-      </c>
-      <c r="D84" s="96" t="s">
-        <v>763</v>
+        <v>344</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="22" t="s">
-        <v>756</v>
+        <v>721</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>764</v>
+        <v>804</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>765</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="22" t="s">
-        <v>758</v>
+        <v>723</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>759</v>
+        <v>724</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>768</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="32" customFormat="1">
+      <c r="A88" s="33" t="s">
+        <v>752</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>755</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="32" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A89" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>756</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="32" customFormat="1">
+      <c r="A90" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="32" customFormat="1">
+      <c r="A91" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="32" customFormat="1">
+      <c r="A92" s="31" t="s">
+        <v>738</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="32" customFormat="1">
+      <c r="A93" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="C93" s="31" t="s">
         <v>761</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="D93" s="31" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="32" customFormat="1">
+      <c r="A94" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>765</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="33" t="s">
+        <v>742</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>743</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="33" t="s">
+        <v>748</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>749</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>767</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>751</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="D98" s="33" t="s">
         <v>769</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="97" customFormat="1">
-      <c r="A88" s="98" t="s">
-        <v>789</v>
-      </c>
-      <c r="B88" s="96" t="s">
-        <v>791</v>
-      </c>
-      <c r="C88" s="96" t="s">
-        <v>792</v>
-      </c>
-      <c r="D88" s="96" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="97" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A89" s="96" t="s">
-        <v>796</v>
-      </c>
-      <c r="B89" s="96" t="s">
-        <v>793</v>
-      </c>
-      <c r="C89" s="96" t="s">
-        <v>795</v>
-      </c>
-      <c r="D89" s="96" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="97" customFormat="1">
-      <c r="A90" s="96" t="s">
-        <v>771</v>
-      </c>
-      <c r="B90" s="96" t="s">
-        <v>772</v>
-      </c>
-      <c r="C90" s="96" t="s">
-        <v>772</v>
-      </c>
-      <c r="D90" s="96" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="97" customFormat="1">
-      <c r="A91" s="96" t="s">
-        <v>773</v>
-      </c>
-      <c r="B91" s="96" t="s">
-        <v>774</v>
-      </c>
-      <c r="C91" s="96" t="s">
-        <v>774</v>
-      </c>
-      <c r="D91" s="96" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="97" customFormat="1">
-      <c r="A92" s="96" t="s">
-        <v>775</v>
-      </c>
-      <c r="B92" s="96" t="s">
-        <v>776</v>
-      </c>
-      <c r="C92" s="96" t="s">
-        <v>776</v>
-      </c>
-      <c r="D92" s="96" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="97" customFormat="1">
-      <c r="A93" s="96" t="s">
-        <v>246</v>
-      </c>
-      <c r="B93" s="96" t="s">
-        <v>797</v>
-      </c>
-      <c r="C93" s="96" t="s">
-        <v>798</v>
-      </c>
-      <c r="D93" s="96" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="97" customFormat="1">
-      <c r="A94" s="96" t="s">
-        <v>800</v>
-      </c>
-      <c r="B94" s="96" t="s">
-        <v>801</v>
-      </c>
-      <c r="C94" s="98" t="s">
-        <v>802</v>
-      </c>
-      <c r="D94" s="98" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="98" t="s">
-        <v>777</v>
-      </c>
-      <c r="B95" s="98" t="s">
-        <v>778</v>
-      </c>
-      <c r="C95" s="98" t="s">
-        <v>781</v>
-      </c>
-      <c r="D95" s="98" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="98" t="s">
-        <v>779</v>
-      </c>
-      <c r="B96" s="98" t="s">
-        <v>780</v>
-      </c>
-      <c r="C96" s="98" t="s">
-        <v>782</v>
-      </c>
-      <c r="D96" s="98" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="98" t="s">
-        <v>785</v>
-      </c>
-      <c r="B97" s="98" t="s">
-        <v>786</v>
-      </c>
-      <c r="C97" s="98" t="s">
-        <v>804</v>
-      </c>
-      <c r="D97" s="98" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="98" t="s">
-        <v>787</v>
-      </c>
-      <c r="B98" s="98" t="s">
-        <v>788</v>
-      </c>
-      <c r="C98" s="98" t="s">
-        <v>807</v>
-      </c>
-      <c r="D98" s="98" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="22" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="22" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="22" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20.25" customHeight="1">
       <c r="A102" s="22" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="22" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B103" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>682</v>
+        <v>648</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="22" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="22" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>693</v>
+        <v>659</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="22" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="22" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="22" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>681</v>
+        <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="22" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="22" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B110" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>119</v>
+        <v>809</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="22" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B111" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>120</v>
+        <v>810</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>646</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="22" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="22" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="22" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B114" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>118</v>
+        <v>792</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="22" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B115" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>647</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="22" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>703</v>
+        <v>669</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>689</v>
+        <v>655</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="22" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>690</v>
+        <v>656</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="22" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B118" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>116</v>
+        <v>805</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="22" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="22" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>623</v>
+        <v>589</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="22" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B123" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="22" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="22" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6538,13 +6644,13 @@
         <v>19</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="D126" s="92" t="s">
-        <v>547</v>
+        <v>456</v>
+      </c>
+      <c r="D126" s="27" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6557,8 +6663,8 @@
       <c r="C127" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D127" s="92" t="s">
-        <v>548</v>
+      <c r="D127" s="27" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6566,13 +6672,13 @@
         <v>23</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C128" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D128" s="92" t="s">
-        <v>298</v>
+      <c r="D128" s="27" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6580,270 +6686,270 @@
         <v>17</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="D129" s="92" t="s">
-        <v>549</v>
+        <v>455</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" thickBot="1">
       <c r="A130" s="24" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="D130" s="93" t="s">
-        <v>550</v>
+        <v>374</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="23" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D131" s="91" t="s">
-        <v>309</v>
+        <v>281</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="D132" s="94" t="s">
-        <v>313</v>
+        <v>820</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="D133" s="94" t="s">
-        <v>314</v>
+        <v>375</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="D134" s="94" t="s">
-        <v>315</v>
+        <v>376</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>109</v>
+        <v>518</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>821</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="68.25" customHeight="1">
       <c r="A136" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B136" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C136" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D136" s="94" t="s">
-        <v>551</v>
+      <c r="C136" s="34" t="s">
+        <v>822</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B137" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C137" s="21" t="s">
-        <v>91</v>
+      <c r="C137" s="34" t="s">
+        <v>824</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B138" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D138" s="94" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B139" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C139" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D139" s="94" t="s">
-        <v>607</v>
+      <c r="C139" s="34" t="s">
+        <v>825</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B140" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B141" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D141" s="94" t="s">
-        <v>609</v>
+        <v>102</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B142" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D142" s="94" t="s">
-        <v>610</v>
+        <v>88</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B143" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="B143" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D143" s="94" t="s">
-        <v>611</v>
+        <v>90</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B144" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D144" s="94" t="s">
-        <v>605</v>
+        <v>83</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B145" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D145" s="94" t="s">
-        <v>606</v>
+        <v>97</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B146" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D146" s="94" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D147" s="94" t="s">
-        <v>602</v>
+        <v>92</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B148" s="21" t="s">
         <v>47</v>
@@ -6851,13 +6957,13 @@
       <c r="C148" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D148" s="94" t="s">
-        <v>603</v>
+      <c r="D148" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B149" s="21" t="s">
         <v>27</v>
@@ -6865,111 +6971,111 @@
       <c r="C149" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D149" s="94" t="s">
-        <v>604</v>
+      <c r="D149" s="29" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B150" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>694</v>
+        <v>660</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B151" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B152" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D153" s="94" t="s">
-        <v>599</v>
+        <v>80</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B154" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>683</v>
+        <v>649</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B155" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B157" s="21" t="s">
         <v>25</v>
@@ -6978,1225 +7084,1307 @@
         <v>73</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B158" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D158" s="94" t="s">
-        <v>593</v>
+        <v>81</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B159" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D159" s="94" t="s">
-        <v>592</v>
+        <v>84</v>
+      </c>
+      <c r="D159" s="29" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B160" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D160" s="94" t="s">
-        <v>591</v>
+        <v>94</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B161" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D161" s="94" t="s">
-        <v>684</v>
+        <v>87</v>
+      </c>
+      <c r="D161" s="29" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B162" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>685</v>
+        <v>651</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B163" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D163" s="94" t="s">
-        <v>686</v>
+        <v>95</v>
+      </c>
+      <c r="D163" s="29" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B164" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B165" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C165" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="D165" s="94" t="s">
-        <v>705</v>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="45">
+      <c r="A165" s="21"/>
+      <c r="B165" s="34" t="s">
+        <v>771</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>772</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D166" s="94" t="s">
-        <v>706</v>
+        <v>670</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>347</v>
+        <v>26</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="D167" s="94" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="D167" s="29" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="45">
       <c r="A168" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B168" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="D168" s="94" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>301</v>
+      </c>
+      <c r="B168" s="34" t="s">
+        <v>774</v>
+      </c>
+      <c r="C168" s="34" t="s">
+        <v>779</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="45">
       <c r="A169" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B169" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="C169" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="D169" s="94" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>301</v>
+      </c>
+      <c r="B169" s="34" t="s">
+        <v>775</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>781</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="60">
       <c r="A170" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B170" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="C170" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="D170" s="94" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>301</v>
+      </c>
+      <c r="B170" s="34" t="s">
+        <v>776</v>
+      </c>
+      <c r="C170" s="34" t="s">
+        <v>783</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="45">
       <c r="A171" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B171" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="C171" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="D171" s="94" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>301</v>
+      </c>
+      <c r="B171" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>785</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="75">
       <c r="A172" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B172" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="C172" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="D172" s="94" t="s">
-        <v>588</v>
+        <v>301</v>
+      </c>
+      <c r="B172" s="34" t="s">
+        <v>778</v>
+      </c>
+      <c r="C172" s="34" t="s">
+        <v>788</v>
+      </c>
+      <c r="D172" s="34" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="D173" s="94" t="s">
-        <v>626</v>
+        <v>377</v>
+      </c>
+      <c r="D173" s="29" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="D174" s="94" t="s">
-        <v>627</v>
+        <v>378</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D175" s="94" t="s">
-        <v>587</v>
+        <v>379</v>
+      </c>
+      <c r="D175" s="29" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D176" s="94" t="s">
-        <v>361</v>
+        <v>380</v>
+      </c>
+      <c r="D176" s="29" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D177" s="94" t="s">
-        <v>586</v>
+        <v>381</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="D178" s="94" t="s">
-        <v>585</v>
+        <v>382</v>
+      </c>
+      <c r="D178" s="29" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="D179" s="94" t="s">
-        <v>404</v>
+        <v>383</v>
+      </c>
+      <c r="D179" s="29" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="D180" s="95" t="s">
-        <v>405</v>
+        <v>384</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="D181" s="94" t="s">
-        <v>584</v>
+        <v>385</v>
+      </c>
+      <c r="D181" s="29" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="D182" s="94" t="s">
-        <v>583</v>
+        <v>346</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="D183" s="94" t="s">
-        <v>582</v>
+        <v>386</v>
+      </c>
+      <c r="D183" s="29" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="D184" s="94" t="s">
-        <v>409</v>
+        <v>387</v>
+      </c>
+      <c r="D184" s="29" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="D185" s="94" t="s">
-        <v>581</v>
+        <v>388</v>
+      </c>
+      <c r="D185" s="29" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D186" s="94" t="s">
-        <v>580</v>
+        <v>389</v>
+      </c>
+      <c r="D186" s="30" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B187" s="21" t="s">
         <v>349</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="D187" s="94" t="s">
-        <v>579</v>
+        <v>826</v>
+      </c>
+      <c r="D187" s="29" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="D188" s="94" t="s">
-        <v>413</v>
+        <v>390</v>
+      </c>
+      <c r="D188" s="29" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="D189" s="94" t="s">
-        <v>376</v>
+        <v>391</v>
+      </c>
+      <c r="D189" s="29" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D190" s="94" t="s">
-        <v>568</v>
+        <v>392</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="D191" s="94" t="s">
-        <v>569</v>
+        <v>393</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="D192" s="94" t="s">
-        <v>527</v>
+        <v>394</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="D193" s="94" t="s">
-        <v>576</v>
+        <v>395</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="D194" s="94" t="s">
-        <v>576</v>
+        <v>396</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D195" s="94" t="s">
-        <v>575</v>
+        <v>397</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="D196" s="94" t="s">
-        <v>570</v>
+        <v>398</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="D197" s="94" t="s">
-        <v>572</v>
+        <v>399</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="D198" s="94" t="s">
-        <v>571</v>
+        <v>400</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D199" s="94" t="s">
-        <v>573</v>
+        <v>310</v>
+      </c>
+      <c r="D199" s="29" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D200" s="94" t="s">
-        <v>573</v>
+        <v>310</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="D201" s="94" t="s">
-        <v>577</v>
+        <v>401</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="D202" s="94" t="s">
-        <v>628</v>
+        <v>402</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D203" s="94" t="s">
-        <v>574</v>
+        <v>403</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D204" s="94" t="s">
-        <v>574</v>
+        <v>404</v>
+      </c>
+      <c r="D204" s="29" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="D205" s="94" t="s">
-        <v>525</v>
+        <v>405</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="D206" s="94" t="s">
-        <v>687</v>
+        <v>405</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D207" s="94" t="s">
-        <v>629</v>
+        <v>406</v>
+      </c>
+      <c r="D207" s="29" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="D208" s="94" t="s">
-        <v>578</v>
+        <v>407</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B209" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="B209" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="C209" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="D209" s="94" t="s">
-        <v>530</v>
+        <v>408</v>
+      </c>
+      <c r="D209" s="29" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B210" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="B210" s="21" t="s">
-        <v>381</v>
-      </c>
       <c r="C210" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="D210" s="94" t="s">
-        <v>630</v>
+        <v>408</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="D211" s="94" t="s">
-        <v>631</v>
+        <v>409</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="D212" s="94" t="s">
-        <v>632</v>
+        <v>410</v>
+      </c>
+      <c r="D212" s="29" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="D213" s="94" t="s">
-        <v>633</v>
+        <v>411</v>
+      </c>
+      <c r="D213" s="29" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="D214" s="94" t="s">
-        <v>634</v>
+        <v>412</v>
+      </c>
+      <c r="D214" s="29" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>379</v>
+        <v>132</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="D215" s="94" t="s">
-        <v>635</v>
+        <v>413</v>
+      </c>
+      <c r="D215" s="29" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>145</v>
+        <v>366</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="D216" s="94" t="s">
-        <v>529</v>
+        <v>414</v>
+      </c>
+      <c r="D216" s="29" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="D217" s="94" t="s">
-        <v>636</v>
+        <v>415</v>
+      </c>
+      <c r="D217" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="D218" s="94" t="s">
-        <v>439</v>
+        <v>416</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="D219" s="94" t="s">
-        <v>691</v>
+        <v>417</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="D220" s="94" t="s">
-        <v>567</v>
+        <v>418</v>
+      </c>
+      <c r="D220" s="29" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="D221" s="94" t="s">
-        <v>566</v>
+        <v>419</v>
+      </c>
+      <c r="D221" s="29" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D222" s="94" t="s">
-        <v>443</v>
+        <v>790</v>
+      </c>
+      <c r="D222" s="29" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="D223" s="94" t="s">
-        <v>444</v>
+        <v>420</v>
+      </c>
+      <c r="D223" s="29" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="D224" s="94" t="s">
-        <v>565</v>
+        <v>421</v>
+      </c>
+      <c r="D224" s="29" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B225" s="21" t="s">
         <v>340</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="D225" s="94" t="s">
-        <v>564</v>
+        <v>422</v>
+      </c>
+      <c r="D225" s="29" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="D226" s="94" t="s">
-        <v>562</v>
+        <v>423</v>
+      </c>
+      <c r="D226" s="29" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="D227" s="94" t="s">
-        <v>562</v>
+        <v>424</v>
+      </c>
+      <c r="D227" s="29" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D228" s="94" t="s">
-        <v>563</v>
+        <v>425</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D229" s="94" t="s">
-        <v>563</v>
+        <v>444</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="D230" s="94" t="s">
-        <v>348</v>
+        <v>427</v>
+      </c>
+      <c r="D230" s="29" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D231" s="94" t="s">
-        <v>561</v>
+        <v>428</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="D232" s="94" t="s">
-        <v>560</v>
+        <v>429</v>
+      </c>
+      <c r="D232" s="29" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="C233" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="D233" s="94" t="s">
-        <v>559</v>
+        <v>429</v>
+      </c>
+      <c r="D233" s="29" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C234" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="D234" s="94" t="s">
-        <v>453</v>
+        <v>823</v>
+      </c>
+      <c r="D234" s="29" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C235" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="D235" s="94" t="s">
-        <v>558</v>
+        <v>823</v>
+      </c>
+      <c r="D235" s="29" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="D236" s="94" t="s">
-        <v>454</v>
+        <v>430</v>
+      </c>
+      <c r="D236" s="29" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="D237" s="94" t="s">
-        <v>557</v>
+        <v>431</v>
+      </c>
+      <c r="D237" s="29" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="D238" s="94" t="s">
-        <v>692</v>
+        <v>432</v>
+      </c>
+      <c r="D238" s="29" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="D239" s="94" t="s">
-        <v>556</v>
+        <v>433</v>
+      </c>
+      <c r="D239" s="29" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="D240" s="94" t="s">
-        <v>555</v>
+        <v>434</v>
+      </c>
+      <c r="D240" s="29" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="D241" s="94" t="s">
-        <v>554</v>
+        <v>404</v>
+      </c>
+      <c r="D241" s="29" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="D242" s="94" t="s">
-        <v>528</v>
+        <v>435</v>
+      </c>
+      <c r="D242" s="29" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="D243" s="94" t="s">
-        <v>553</v>
+        <v>786</v>
+      </c>
+      <c r="D243" s="29" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="D244" s="94" t="s">
-        <v>553</v>
+        <v>436</v>
+      </c>
+      <c r="D244" s="29" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B245" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D245" s="29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B246" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C246" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="D246" s="29" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B247" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C247" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="D247" s="29" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B248" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C248" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D248" s="29" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B249" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C249" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D249" s="29" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B250" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C250" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D250" s="29" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
